--- a/grabDoll/config/egg.xlsx
+++ b/grabDoll/config/egg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
   <si>
     <r>
       <t>ID</t>
@@ -32,13 +32,105 @@
     </r>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>物理半径大小</t>
-  </si>
-  <si>
-    <r>
+    <t>config_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>egg_0002</t>
+  </si>
+  <si>
+    <t>egg_blue</t>
+  </si>
+  <si>
+    <t>egg_0001</t>
+  </si>
+  <si>
+    <t>egg_yellow</t>
+  </si>
+  <si>
+    <t>egg_0003</t>
+  </si>
+  <si>
+    <t>egg_red</t>
+  </si>
+  <si>
+    <t>egg_coin</t>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>egg_0004</t>
+  </si>
+  <si>
+    <t>egg_0005</t>
+  </si>
+  <si>
+    <t>egg_0006</t>
+  </si>
+  <si>
+    <t>egg_0007</t>
+  </si>
+  <si>
+    <t>egg_0008</t>
+  </si>
+  <si>
+    <t>egg_0009</t>
+  </si>
+  <si>
+    <t>egg_0010</t>
+  </si>
+  <si>
+    <t>egg_0011</t>
+  </si>
+  <si>
+    <t>egg_0012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物理半径大小</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>图标</t>
     </r>
     <r>
@@ -53,6 +145,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>动</t>
     </r>
     <r>
@@ -66,109 +165,117 @@
     </r>
   </si>
   <si>
-    <t>config_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>clip</t>
-  </si>
-  <si>
-    <t>蓝鸡蛋</t>
-  </si>
-  <si>
-    <t>egg_0002</t>
-  </si>
-  <si>
-    <t>egg_blue</t>
-  </si>
-  <si>
-    <t>绿鸡蛋</t>
-  </si>
-  <si>
-    <t>egg_0001</t>
-  </si>
-  <si>
-    <t>egg_yellow</t>
-  </si>
-  <si>
-    <t>粉鸡蛋</t>
-  </si>
-  <si>
-    <t>egg_0003</t>
-  </si>
-  <si>
-    <t>egg_red</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>egg_coin</t>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>金蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宝</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍珠蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝鸡蛋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿鸡蛋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粉鸡蛋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>珍珠蛋</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元宝</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金蛋</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Constantia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Constantia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -187,6 +294,26 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,27 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -533,206 +645,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="11.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>10016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>10017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>10018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>10019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>10005</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>10006</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>10007</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>10020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>10021</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -744,7 +1137,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -757,7 +1150,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/grabDoll/config/egg.xlsx
+++ b/grabDoll/config/egg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -23,6 +23,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Consolas"/>
+        <family val="3"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -41,6 +42,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名字</t>
@@ -52,6 +54,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>等级</t>
@@ -66,6 +69,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>物理半径大小</t>
@@ -77,6 +81,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图标</t>
@@ -96,6 +101,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>动</t>
@@ -705,8 +711,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -716,6 +722,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -726,11 +733,13 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2032,14 +2041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I155" sqref="I155"/>
+      <selection activeCell="A3" sqref="A3:A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
@@ -2053,7 +2062,7 @@
     <col min="11" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>10001</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>10002</v>
       </c>
@@ -2181,7 +2190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>10003</v>
       </c>
@@ -2213,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>10004</v>
       </c>
@@ -2245,7 +2254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>10005</v>
       </c>
@@ -2277,9 +2286,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="4">
-        <v>10006</v>
+        <v>10026</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -2309,9 +2318,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="4">
-        <v>10007</v>
+        <v>10027</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -2341,9 +2350,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="4">
-        <v>10008</v>
+        <v>10028</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -2373,9 +2382,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="4">
-        <v>10009</v>
+        <v>10029</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
@@ -2405,9 +2414,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="4">
-        <v>10010</v>
+        <v>10030</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
@@ -2437,9 +2446,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>10011</v>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>10051</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -2469,9 +2478,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10012</v>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>10052</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
@@ -2501,9 +2510,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>10013</v>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>10053</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>15</v>
@@ -2533,9 +2542,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>10014</v>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>10054</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
@@ -2565,9 +2574,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>10015</v>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>10055</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>15</v>
@@ -2597,9 +2606,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>10016</v>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>10076</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>15</v>
@@ -2629,9 +2638,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>10017</v>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>10077</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
@@ -2661,9 +2670,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>10018</v>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>10078</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>15</v>
@@ -2693,9 +2702,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>10019</v>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>10079</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
@@ -2725,9 +2734,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>10020</v>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>10080</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
@@ -2757,9 +2766,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>10021</v>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>10101</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>15</v>
@@ -2789,9 +2798,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>10022</v>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="4">
+        <v>10102</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>15</v>
@@ -2821,9 +2830,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>10023</v>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>10103</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>15</v>
@@ -2853,9 +2862,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>10024</v>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>10104</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
@@ -2885,9 +2894,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>10025</v>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4">
+        <v>10105</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>15</v>
@@ -2917,9 +2926,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>10026</v>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="4">
+        <v>11001</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>15</v>
@@ -2949,9 +2958,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>10027</v>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="4">
+        <v>11002</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>15</v>
@@ -2981,9 +2990,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>10028</v>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="4">
+        <v>11003</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>15</v>
@@ -3013,9 +3022,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>10029</v>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="4">
+        <v>11006</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>15</v>
@@ -3045,9 +3054,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>10030</v>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="4">
+        <v>11007</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>15</v>
@@ -3077,9 +3086,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>10031</v>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="4">
+        <v>11008</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>15</v>
@@ -3109,9 +3118,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>10032</v>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="4">
+        <v>11011</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>15</v>
@@ -3141,9 +3150,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>10033</v>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="4">
+        <v>11012</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>15</v>
@@ -3173,9 +3182,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>10034</v>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="4">
+        <v>11013</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>15</v>
@@ -3205,9 +3214,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>10035</v>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="4">
+        <v>11016</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>15</v>
@@ -3237,9 +3246,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>10036</v>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="4">
+        <v>11017</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>15</v>
@@ -3269,9 +3278,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>10037</v>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="4">
+        <v>11018</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>15</v>
@@ -3301,9 +3310,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>10038</v>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>11021</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>15</v>
@@ -3333,9 +3342,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>10039</v>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>11022</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>15</v>
@@ -3365,9 +3374,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>10040</v>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="4">
+        <v>11023</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>15</v>
@@ -3397,9 +3406,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>10041</v>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A43" s="4">
+        <v>10006</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>72</v>
@@ -3429,9 +3438,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>10042</v>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A44" s="4">
+        <v>10007</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>72</v>
@@ -3461,9 +3470,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>10043</v>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A45" s="4">
+        <v>10008</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>72</v>
@@ -3493,9 +3502,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>10044</v>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="4">
+        <v>10009</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>72</v>
@@ -3525,9 +3534,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>10045</v>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="4">
+        <v>10010</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>72</v>
@@ -3557,9 +3566,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>10046</v>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A48" s="4">
+        <v>10011</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>72</v>
@@ -3589,9 +3598,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>10047</v>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="4">
+        <v>10012</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>72</v>
@@ -3621,9 +3630,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>10048</v>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="4">
+        <v>10013</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>72</v>
@@ -3653,9 +3662,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>10049</v>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="4">
+        <v>10014</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>72</v>
@@ -3685,9 +3694,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>10050</v>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A52" s="4">
+        <v>10015</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>72</v>
@@ -3717,9 +3726,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>10051</v>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="4">
+        <v>10031</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>72</v>
@@ -3749,9 +3758,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>10052</v>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="4">
+        <v>10032</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>72</v>
@@ -3781,9 +3790,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>10053</v>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="4">
+        <v>10033</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>72</v>
@@ -3813,9 +3822,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
-        <v>10054</v>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="4">
+        <v>10034</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>72</v>
@@ -3845,9 +3854,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>10055</v>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="4">
+        <v>10035</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>72</v>
@@ -3877,9 +3886,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>10056</v>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="4">
+        <v>10036</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>72</v>
@@ -3909,9 +3918,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>10057</v>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="4">
+        <v>10037</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>72</v>
@@ -3941,9 +3950,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>10058</v>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="4">
+        <v>10038</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>72</v>
@@ -3973,9 +3982,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>10059</v>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="4">
+        <v>10039</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>72</v>
@@ -4005,9 +4014,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>10060</v>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="4">
+        <v>10040</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>72</v>
@@ -4037,9 +4046,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>10061</v>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="4">
+        <v>10056</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>72</v>
@@ -4069,9 +4078,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>10062</v>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="4">
+        <v>10057</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>72</v>
@@ -4101,9 +4110,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>10063</v>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="4">
+        <v>10058</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>72</v>
@@ -4133,9 +4142,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>10064</v>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="4">
+        <v>10059</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>72</v>
@@ -4165,9 +4174,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>10065</v>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="4">
+        <v>10060</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>72</v>
@@ -4197,9 +4206,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>10066</v>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="4">
+        <v>10061</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>72</v>
@@ -4229,9 +4238,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>10067</v>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A69" s="4">
+        <v>10062</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>72</v>
@@ -4261,9 +4270,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>10068</v>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A70" s="4">
+        <v>10063</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>72</v>
@@ -4293,9 +4302,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>10069</v>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A71" s="4">
+        <v>10064</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>72</v>
@@ -4325,9 +4334,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>10070</v>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A72" s="4">
+        <v>10065</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>72</v>
@@ -4357,9 +4366,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>10071</v>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A73" s="4">
+        <v>10081</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>72</v>
@@ -4389,9 +4398,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>10072</v>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A74" s="4">
+        <v>10082</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>72</v>
@@ -4421,9 +4430,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>10073</v>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A75" s="4">
+        <v>10083</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>72</v>
@@ -4453,9 +4462,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>10074</v>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A76" s="4">
+        <v>10084</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>72</v>
@@ -4485,9 +4494,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>10075</v>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A77" s="4">
+        <v>10085</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>72</v>
@@ -4517,9 +4526,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>10076</v>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A78" s="4">
+        <v>10086</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>72</v>
@@ -4549,9 +4558,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>10077</v>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A79" s="4">
+        <v>10087</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>72</v>
@@ -4581,9 +4590,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>10078</v>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A80" s="4">
+        <v>10088</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>72</v>
@@ -4613,9 +4622,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>10079</v>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="4">
+        <v>10089</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>72</v>
@@ -4645,9 +4654,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>10080</v>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="4">
+        <v>10090</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>72</v>
@@ -4677,9 +4686,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>10081</v>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="4">
+        <v>10106</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>72</v>
@@ -4709,9 +4718,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>10082</v>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="4">
+        <v>10107</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>72</v>
@@ -4741,9 +4750,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>10083</v>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="4">
+        <v>10108</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>72</v>
@@ -4773,9 +4782,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>10084</v>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="4">
+        <v>10109</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>72</v>
@@ -4805,9 +4814,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
-        <v>10085</v>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="4">
+        <v>10110</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>72</v>
@@ -4837,9 +4846,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>10086</v>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A88" s="4">
+        <v>10111</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>72</v>
@@ -4869,9 +4878,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>10087</v>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="4">
+        <v>10112</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>72</v>
@@ -4901,9 +4910,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>10088</v>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="4">
+        <v>10113</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>72</v>
@@ -4933,9 +4942,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>10089</v>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="4">
+        <v>10114</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>72</v>
@@ -4965,9 +4974,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
-        <v>10090</v>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="4">
+        <v>10115</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>72</v>
@@ -4997,9 +5006,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <v>10091</v>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="4">
+        <v>11004</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>72</v>
@@ -5029,9 +5038,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <v>10092</v>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="4">
+        <v>11005</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>72</v>
@@ -5061,9 +5070,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>10093</v>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="4">
+        <v>11009</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>72</v>
@@ -5093,9 +5102,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>10094</v>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="4">
+        <v>11010</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>72</v>
@@ -5125,9 +5134,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
-        <v>10095</v>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A97" s="4">
+        <v>11014</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>72</v>
@@ -5157,9 +5166,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
-        <v>10096</v>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A98" s="4">
+        <v>11015</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>72</v>
@@ -5189,9 +5198,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
-        <v>10097</v>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A99" s="4">
+        <v>11019</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>72</v>
@@ -5221,9 +5230,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
-        <v>10098</v>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A100" s="4">
+        <v>11020</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>72</v>
@@ -5253,9 +5262,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <v>10099</v>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A101" s="4">
+        <v>11024</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>72</v>
@@ -5285,9 +5294,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
-        <v>10100</v>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A102" s="4">
+        <v>11025</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>72</v>
@@ -5317,9 +5326,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
-        <v>10101</v>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A103" s="4">
+        <v>10016</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>133</v>
@@ -5349,9 +5358,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <v>10102</v>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A104" s="4">
+        <v>10017</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>133</v>
@@ -5381,9 +5390,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
-        <v>10103</v>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A105" s="4">
+        <v>10018</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>133</v>
@@ -5413,9 +5422,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>10104</v>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A106" s="4">
+        <v>10019</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>133</v>
@@ -5445,9 +5454,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <v>10105</v>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A107" s="4">
+        <v>10020</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>133</v>
@@ -5477,9 +5486,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>10106</v>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A108" s="4">
+        <v>10021</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>133</v>
@@ -5509,9 +5518,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <v>10107</v>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A109" s="4">
+        <v>10022</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>133</v>
@@ -5541,9 +5550,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>10108</v>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A110" s="4">
+        <v>10041</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>133</v>
@@ -5573,9 +5582,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
-        <v>10109</v>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A111" s="4">
+        <v>10042</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>133</v>
@@ -5605,9 +5614,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>10110</v>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" s="4">
+        <v>10043</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>133</v>
@@ -5637,9 +5646,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6">
-        <v>10111</v>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A113" s="4">
+        <v>10044</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>133</v>
@@ -5669,9 +5678,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
-        <v>10112</v>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A114" s="4">
+        <v>10045</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>133</v>
@@ -5701,9 +5710,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6">
-        <v>10113</v>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A115" s="4">
+        <v>10046</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>133</v>
@@ -5733,9 +5742,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
-        <v>10114</v>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A116" s="4">
+        <v>10047</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>133</v>
@@ -5765,9 +5774,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6">
-        <v>10115</v>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A117" s="4">
+        <v>10066</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>133</v>
@@ -5797,9 +5806,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>10116</v>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A118" s="4">
+        <v>10067</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>133</v>
@@ -5829,9 +5838,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>10117</v>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A119" s="4">
+        <v>10068</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>133</v>
@@ -5861,9 +5870,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>10118</v>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A120" s="4">
+        <v>10069</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>133</v>
@@ -5893,9 +5902,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>10119</v>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A121" s="4">
+        <v>10070</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>133</v>
@@ -5925,9 +5934,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>10120</v>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A122" s="4">
+        <v>10071</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>133</v>
@@ -5957,9 +5966,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6">
-        <v>10121</v>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A123" s="4">
+        <v>10072</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>133</v>
@@ -5989,9 +5998,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6">
-        <v>10122</v>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A124" s="4">
+        <v>10091</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>133</v>
@@ -6021,9 +6030,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
-        <v>10123</v>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A125" s="4">
+        <v>10092</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>133</v>
@@ -6053,9 +6062,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>10124</v>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A126" s="4">
+        <v>10093</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>133</v>
@@ -6085,9 +6094,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>10125</v>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A127" s="4">
+        <v>10094</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>133</v>
@@ -6117,9 +6126,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6">
-        <v>10126</v>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A128" s="4">
+        <v>10095</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>133</v>
@@ -6149,9 +6158,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>10127</v>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A129" s="4">
+        <v>10096</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>133</v>
@@ -6181,9 +6190,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
-        <v>10128</v>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A130" s="4">
+        <v>10097</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>133</v>
@@ -6213,9 +6222,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
-        <v>10129</v>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A131" s="4">
+        <v>10116</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>133</v>
@@ -6245,9 +6254,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
-        <v>10130</v>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A132" s="4">
+        <v>10117</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>133</v>
@@ -6277,9 +6286,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
-        <v>10131</v>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A133" s="4">
+        <v>10118</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>133</v>
@@ -6309,9 +6318,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>10132</v>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A134" s="4">
+        <v>10119</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>133</v>
@@ -6341,9 +6350,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
-        <v>10133</v>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A135" s="4">
+        <v>10120</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>133</v>
@@ -6373,9 +6382,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
-        <v>10134</v>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A136" s="4">
+        <v>10121</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>133</v>
@@ -6405,9 +6414,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
-        <v>10135</v>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A137" s="4">
+        <v>10122</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>133</v>
@@ -6437,9 +6446,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
-        <v>10136</v>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A138" s="4">
+        <v>10023</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>169</v>
@@ -6469,9 +6478,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6">
-        <v>10137</v>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A139" s="4">
+        <v>10024</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>169</v>
@@ -6501,9 +6510,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="6">
-        <v>10138</v>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A140" s="4">
+        <v>10025</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>169</v>
@@ -6533,9 +6542,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6">
-        <v>10139</v>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A141" s="4">
+        <v>10048</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>169</v>
@@ -6565,9 +6574,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="6">
-        <v>10140</v>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A142" s="4">
+        <v>10049</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>169</v>
@@ -6597,9 +6606,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="6">
-        <v>10141</v>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A143" s="4">
+        <v>10050</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>169</v>
@@ -6629,9 +6638,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
-        <v>10142</v>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A144" s="4">
+        <v>10073</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>169</v>
@@ -6661,9 +6670,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
-        <v>10143</v>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A145" s="4">
+        <v>10074</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>169</v>
@@ -6693,9 +6702,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
-        <v>10144</v>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A146" s="4">
+        <v>10075</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>169</v>
@@ -6725,9 +6734,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6">
-        <v>10145</v>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A147" s="4">
+        <v>10098</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>169</v>
@@ -6757,9 +6766,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6">
-        <v>10146</v>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A148" s="4">
+        <v>10099</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>169</v>
@@ -6789,9 +6798,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="6">
-        <v>10147</v>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A149" s="4">
+        <v>10100</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>169</v>
@@ -6821,9 +6830,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
-        <v>10148</v>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A150" s="4">
+        <v>10123</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>169</v>
@@ -6853,9 +6862,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
-        <v>10149</v>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A151" s="4">
+        <v>10124</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>169</v>
@@ -6885,9 +6894,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
-        <v>10150</v>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A152" s="4">
+        <v>10125</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>169</v>
@@ -6917,7 +6926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1">
       <c r="A153" s="10"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -6938,80 +6947,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7029,80 +7038,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="9" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/grabDoll/config/egg.xlsx
+++ b/grabDoll/config/egg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
@@ -711,8 +711,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2041,14 +2041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A152"/>
+      <selection activeCell="H100" sqref="H100:H137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
@@ -2062,7 +2062,7 @@
     <col min="11" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.95" customHeight="1">
+    <row r="1" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10001</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>190</v>
@@ -2158,7 +2158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10002</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>190</v>
@@ -2190,7 +2190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10003</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>10004</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10005</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>10026</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>10027</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10028</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10029</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10030</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10051</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10052</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10053</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10054</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>10055</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>10076</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>10077</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>10078</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>10079</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>10080</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10101</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10102</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>10103</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>190</v>
@@ -2862,7 +2862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>10104</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>190</v>
@@ -2894,7 +2894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>10105</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>11001</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>11002</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>11003</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>11006</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>11007</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>11008</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>11011</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>11012</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>11013</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>11016</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>11017</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>11018</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>11021</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>11022</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11023</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>10006</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>49</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>190</v>
@@ -3438,7 +3438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>10007</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>51</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>190</v>
@@ -3470,7 +3470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>10008</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>190</v>
@@ -3502,7 +3502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10009</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>51</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>190</v>
@@ -3534,7 +3534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>10010</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>190</v>
@@ -3566,7 +3566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>10011</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>10012</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>23</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>190</v>
@@ -3630,7 +3630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>10013</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>26</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>190</v>
@@ -3662,7 +3662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>10014</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>190</v>
@@ -3694,7 +3694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>10015</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>23</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>190</v>
@@ -3726,7 +3726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>10031</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>190</v>
@@ -3758,7 +3758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>10032</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>190</v>
@@ -3790,7 +3790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>10033</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>23</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>190</v>
@@ -3822,7 +3822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>10034</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>23</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>190</v>
@@ -3854,7 +3854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>10035</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>190</v>
@@ -3886,7 +3886,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>10036</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>35</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>190</v>
@@ -3918,7 +3918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>10037</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>37</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>190</v>
@@ -3950,7 +3950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10038</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>39</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>190</v>
@@ -3982,7 +3982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>10039</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>41</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>190</v>
@@ -4014,7 +4014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>10040</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>43</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>190</v>
@@ -4046,7 +4046,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>10056</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>45</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>190</v>
@@ -4078,7 +4078,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>10057</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>47</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>190</v>
@@ -4110,7 +4110,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>10058</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>49</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>190</v>
@@ -4142,7 +4142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>10059</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>51</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>190</v>
@@ -4174,7 +4174,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>10060</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>190</v>
@@ -4206,7 +4206,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>10061</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>51</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>190</v>
@@ -4238,7 +4238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>10062</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>17</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>190</v>
@@ -4270,7 +4270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>10063</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>10064</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>23</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>190</v>
@@ -4334,7 +4334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10065</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>26</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>190</v>
@@ -4366,7 +4366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>10081</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>23</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>190</v>
@@ -4398,7 +4398,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>10082</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>23</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>190</v>
@@ -4430,7 +4430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>10083</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>23</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>190</v>
@@ -4462,7 +4462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>10084</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>23</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>190</v>
@@ -4494,7 +4494,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>10085</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>23</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I77" s="16" t="s">
         <v>190</v>
@@ -4526,7 +4526,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>10086</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>23</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>190</v>
@@ -4558,7 +4558,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>10087</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>23</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>190</v>
@@ -4590,7 +4590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>10088</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>35</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>190</v>
@@ -4622,7 +4622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>10089</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>37</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I81" s="16" t="s">
         <v>190</v>
@@ -4654,7 +4654,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10090</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>39</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I82" s="16" t="s">
         <v>190</v>
@@ -4686,7 +4686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>10106</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>41</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I83" s="16" t="s">
         <v>190</v>
@@ -4718,7 +4718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>10107</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>43</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>190</v>
@@ -4750,7 +4750,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>10108</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>45</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I85" s="16" t="s">
         <v>190</v>
@@ -4782,7 +4782,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>10109</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>190</v>
@@ -4814,7 +4814,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>10110</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>49</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I87" s="16" t="s">
         <v>190</v>
@@ -4846,7 +4846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>10111</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>51</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I88" s="16" t="s">
         <v>190</v>
@@ -4878,7 +4878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>10112</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>51</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>190</v>
@@ -4910,7 +4910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>10113</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>51</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>190</v>
@@ -4942,7 +4942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>10114</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>190</v>
@@ -4974,7 +4974,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>10115</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>11004</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>23</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I93" s="16" t="s">
         <v>190</v>
@@ -5038,7 +5038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>11005</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>26</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>190</v>
@@ -5070,7 +5070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>11009</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>23</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I95" s="16" t="s">
         <v>190</v>
@@ -5102,7 +5102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>11010</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>23</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>190</v>
@@ -5134,7 +5134,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>11014</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>23</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>190</v>
@@ -5166,7 +5166,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>11015</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>23</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>190</v>
@@ -5198,7 +5198,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>11019</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>23</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>190</v>
@@ -5230,7 +5230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>11020</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>23</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>190</v>
@@ -5262,7 +5262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>11024</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>23</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I101" s="16" t="s">
         <v>190</v>
@@ -5294,7 +5294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>11025</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>35</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>190</v>
@@ -5326,7 +5326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>10016</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>37</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>190</v>
@@ -5358,7 +5358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>10017</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>39</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I104" s="16" t="s">
         <v>190</v>
@@ -5390,7 +5390,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>10018</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>41</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I105" s="16" t="s">
         <v>190</v>
@@ -5422,7 +5422,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>10019</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>43</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I106" s="16" t="s">
         <v>190</v>
@@ -5454,7 +5454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>10020</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>45</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>190</v>
@@ -5486,7 +5486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>10021</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>47</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I108" s="16" t="s">
         <v>190</v>
@@ -5518,7 +5518,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>10022</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>49</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I109" s="16" t="s">
         <v>190</v>
@@ -5550,7 +5550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>10041</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>51</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I110" s="16" t="s">
         <v>190</v>
@@ -5582,7 +5582,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>10042</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>51</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I111" s="16" t="s">
         <v>190</v>
@@ -5614,7 +5614,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>10043</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>51</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I112" s="16" t="s">
         <v>190</v>
@@ -5646,7 +5646,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>10044</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>17</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>190</v>
@@ -5678,7 +5678,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>10045</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>10046</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>23</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I115" s="16" t="s">
         <v>190</v>
@@ -5742,7 +5742,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>10047</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>26</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I116" s="16" t="s">
         <v>190</v>
@@ -5774,7 +5774,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>10066</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I117" s="16" t="s">
         <v>190</v>
@@ -5806,7 +5806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>10067</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>23</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>190</v>
@@ -5838,7 +5838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>10068</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>23</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>190</v>
@@ -5870,7 +5870,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>10069</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>23</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>190</v>
@@ -5902,7 +5902,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>10070</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>23</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>190</v>
@@ -5934,7 +5934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>10071</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>23</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I122" s="16" t="s">
         <v>190</v>
@@ -5966,7 +5966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>10072</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>23</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I123" s="16" t="s">
         <v>190</v>
@@ -5998,7 +5998,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>10091</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>35</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>190</v>
@@ -6030,7 +6030,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>10092</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>37</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>190</v>
@@ -6062,7 +6062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" customHeight="1">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>10093</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>39</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>190</v>
@@ -6094,7 +6094,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>10094</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>41</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>190</v>
@@ -6126,7 +6126,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.75" customHeight="1">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>10095</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>43</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I128" s="16" t="s">
         <v>190</v>
@@ -6158,7 +6158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>10096</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>45</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>190</v>
@@ -6190,7 +6190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>10097</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>47</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>190</v>
@@ -6222,7 +6222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>10116</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>49</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>190</v>
@@ -6254,7 +6254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>10117</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>51</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I132" s="16" t="s">
         <v>190</v>
@@ -6286,7 +6286,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>10118</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>51</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I133" s="16" t="s">
         <v>190</v>
@@ -6318,7 +6318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10119</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>51</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>190</v>
@@ -6350,7 +6350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>10120</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>17</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I135" s="16" t="s">
         <v>190</v>
@@ -6382,7 +6382,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10121</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>10122</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>23</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>190</v>
@@ -6446,7 +6446,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>10023</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>26</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I138" s="16" t="s">
         <v>191</v>
@@ -6478,7 +6478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>10024</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>23</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I139" s="16" t="s">
         <v>191</v>
@@ -6510,7 +6510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>10025</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>23</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I140" s="16" t="s">
         <v>191</v>
@@ -6542,7 +6542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>10048</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>23</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I141" s="16" t="s">
         <v>191</v>
@@ -6574,7 +6574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>10049</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>23</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I142" s="16" t="s">
         <v>191</v>
@@ -6606,7 +6606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>10050</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>23</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I143" s="16" t="s">
         <v>191</v>
@@ -6638,7 +6638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>10073</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>23</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I144" s="16" t="s">
         <v>191</v>
@@ -6670,7 +6670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>10074</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>23</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I145" s="16" t="s">
         <v>191</v>
@@ -6702,7 +6702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>10075</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>35</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I146" s="16" t="s">
         <v>191</v>
@@ -6734,7 +6734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>10098</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>37</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I147" s="16" t="s">
         <v>191</v>
@@ -6766,7 +6766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>10099</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>39</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I148" s="16" t="s">
         <v>191</v>
@@ -6798,7 +6798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>10100</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>41</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I149" s="16" t="s">
         <v>191</v>
@@ -6830,7 +6830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>10123</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>43</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I150" s="16" t="s">
         <v>191</v>
@@ -6862,7 +6862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>10124</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>45</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I151" s="16" t="s">
         <v>191</v>
@@ -6894,7 +6894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>10125</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>47</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I152" s="16" t="s">
         <v>191</v>
@@ -6926,7 +6926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -6947,80 +6947,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7038,80 +7038,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="256" width="9" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>

--- a/grabDoll/config/egg.xlsx
+++ b/grabDoll/config/egg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="183">
   <si>
     <r>
       <rPr>
@@ -146,36 +146,24 @@
     <t>暖暖</t>
   </si>
   <si>
-    <t>egg_0002</t>
-  </si>
-  <si>
     <t>egg_blue</t>
   </si>
   <si>
     <t>大头君</t>
   </si>
   <si>
-    <t>egg_0001</t>
-  </si>
-  <si>
     <t>egg_yellow</t>
   </si>
   <si>
     <t>小瓶盖</t>
   </si>
   <si>
-    <t>egg_0003</t>
-  </si>
-  <si>
     <t>egg_red</t>
   </si>
   <si>
     <t>顿顿</t>
   </si>
   <si>
-    <t>egg_coin</t>
-  </si>
-  <si>
     <t>桃桃</t>
   </si>
   <si>
@@ -200,55 +188,28 @@
     <t>蹦莎卡拉卡</t>
   </si>
   <si>
-    <t>egg_0004</t>
-  </si>
-  <si>
     <t>一风之音</t>
   </si>
   <si>
-    <t>egg_0005</t>
-  </si>
-  <si>
     <t>小虎牙玛格丽特</t>
   </si>
   <si>
-    <t>egg_0006</t>
-  </si>
-  <si>
     <t>萌比小艾</t>
   </si>
   <si>
-    <t>egg_0007</t>
-  </si>
-  <si>
     <t>千和世纪</t>
   </si>
   <si>
-    <t>egg_0008</t>
-  </si>
-  <si>
     <t>原谅蛙</t>
   </si>
   <si>
-    <t>egg_0009</t>
-  </si>
-  <si>
     <t>小鸟杜比</t>
   </si>
   <si>
-    <t>egg_0010</t>
-  </si>
-  <si>
     <t>屋之雪兔</t>
   </si>
   <si>
-    <t>egg_0011</t>
-  </si>
-  <si>
     <t>桑格博士</t>
-  </si>
-  <si>
-    <t>egg_0012</t>
   </si>
   <si>
     <t>青豆丁费洛</t>
@@ -706,6 +667,18 @@
   <si>
     <t>diamond</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>heitu</t>
+  </si>
+  <si>
+    <t>naizui</t>
+  </si>
+  <si>
+    <t>makalong</t>
+  </si>
+  <si>
+    <t>hudie</t>
   </si>
 </sst>
 </file>
@@ -2044,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100:H137"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2076,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2088,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2120,10 +2093,10 @@
         <v>14</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2146,13 +2119,13 @@
         <v>0.77</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J3" s="1">
         <v>100</v>
@@ -2172,19 +2145,19 @@
         <v>40002</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4">
         <v>0.77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J4" s="14">
         <v>100</v>
@@ -2204,19 +2177,19 @@
         <v>40003</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <v>0.77</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J5" s="14">
         <v>100</v>
@@ -2236,19 +2209,19 @@
         <v>40004</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>0.77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J6" s="14">
         <v>100</v>
@@ -2268,19 +2241,19 @@
         <v>40005</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4">
         <v>0.77</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J7" s="14">
         <v>100</v>
@@ -2300,19 +2273,19 @@
         <v>40026</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>0.77</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J8" s="14">
         <v>100</v>
@@ -2332,19 +2305,19 @@
         <v>40027</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4">
         <v>0.77</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J9" s="14">
         <v>100</v>
@@ -2364,19 +2337,19 @@
         <v>40028</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
         <v>0.77</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J10" s="14">
         <v>100</v>
@@ -2396,19 +2369,19 @@
         <v>40029</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4">
         <v>0.77</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J11" s="14">
         <v>100</v>
@@ -2428,19 +2401,19 @@
         <v>40030</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4">
         <v>0.77</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J12" s="14">
         <v>100</v>
@@ -2460,19 +2433,19 @@
         <v>40051</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4">
         <v>0.77</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J13" s="14">
         <v>100</v>
@@ -2492,19 +2465,19 @@
         <v>40052</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="4">
         <v>0.77</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J14" s="14">
         <v>100</v>
@@ -2524,19 +2497,19 @@
         <v>40053</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4">
         <v>0.77</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J15" s="14">
         <v>100</v>
@@ -2556,19 +2529,19 @@
         <v>40054</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4">
         <v>0.77</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J16" s="14">
         <v>100</v>
@@ -2588,19 +2561,19 @@
         <v>40055</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4">
         <v>0.77</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J17" s="14">
         <v>100</v>
@@ -2620,19 +2593,19 @@
         <v>40076</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4">
         <v>0.77</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J18" s="14">
         <v>100</v>
@@ -2652,19 +2625,19 @@
         <v>40077</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4">
         <v>0.77</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J19" s="14">
         <v>100</v>
@@ -2684,19 +2657,19 @@
         <v>40078</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F20" s="4">
         <v>0.77</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J20" s="14">
         <v>100</v>
@@ -2716,19 +2689,19 @@
         <v>40079</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4">
         <v>0.77</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J21" s="14">
         <v>100</v>
@@ -2748,19 +2721,19 @@
         <v>40080</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4">
         <v>0.77</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J22" s="14">
         <v>100</v>
@@ -2780,19 +2753,19 @@
         <v>40101</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4">
         <v>0.77</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J23" s="14">
         <v>100</v>
@@ -2812,19 +2785,19 @@
         <v>40102</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F24" s="4">
         <v>0.77</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J24" s="14">
         <v>100</v>
@@ -2844,19 +2817,19 @@
         <v>40103</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4">
         <v>0.77</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J25" s="14">
         <v>100</v>
@@ -2876,19 +2849,19 @@
         <v>40104</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4">
         <v>0.77</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J26" s="14">
         <v>100</v>
@@ -2908,19 +2881,19 @@
         <v>40105</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4">
         <v>0.77</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J27" s="14">
         <v>100</v>
@@ -2940,19 +2913,19 @@
         <v>41001</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4">
         <v>0.77</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J28" s="14">
         <v>100</v>
@@ -2972,19 +2945,19 @@
         <v>41002</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F29" s="4">
         <v>0.77</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J29" s="14">
         <v>100</v>
@@ -3004,19 +2977,19 @@
         <v>41003</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F30" s="4">
         <v>0.77</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J30" s="14">
         <v>100</v>
@@ -3036,19 +3009,19 @@
         <v>41006</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4">
         <v>0.77</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J31" s="14">
         <v>100</v>
@@ -3068,19 +3041,19 @@
         <v>41007</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F32" s="4">
         <v>0.77</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J32" s="14">
         <v>100</v>
@@ -3100,19 +3073,19 @@
         <v>41008</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F33" s="4">
         <v>0.77</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J33" s="14">
         <v>100</v>
@@ -3132,19 +3105,19 @@
         <v>41011</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4">
         <v>0.77</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J34" s="14">
         <v>100</v>
@@ -3164,19 +3137,19 @@
         <v>41012</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F35" s="4">
         <v>0.77</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J35" s="14">
         <v>100</v>
@@ -3196,19 +3169,19 @@
         <v>41013</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F36" s="4">
         <v>0.77</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J36" s="14">
         <v>100</v>
@@ -3228,19 +3201,19 @@
         <v>41016</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F37" s="4">
         <v>0.77</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J37" s="14">
         <v>100</v>
@@ -3260,19 +3233,19 @@
         <v>41017</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F38" s="4">
         <v>0.77</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J38" s="14">
         <v>100</v>
@@ -3292,19 +3265,19 @@
         <v>41018</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F39" s="4">
         <v>0.77</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J39" s="14">
         <v>100</v>
@@ -3324,19 +3297,19 @@
         <v>41021</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F40" s="4">
         <v>0.77</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J40" s="14">
         <v>100</v>
@@ -3356,19 +3329,19 @@
         <v>41022</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F41" s="4">
         <v>0.77</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J41" s="14">
         <v>100</v>
@@ -3388,19 +3361,19 @@
         <v>41023</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4">
         <v>0.77</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J42" s="14">
         <v>100</v>
@@ -3411,7 +3384,7 @@
         <v>10006</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C43" s="6">
         <v>2</v>
@@ -3420,19 +3393,19 @@
         <v>40006</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F43" s="4">
         <v>0.77</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J43" s="14">
         <v>200</v>
@@ -3443,7 +3416,7 @@
         <v>10007</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C44" s="6">
         <v>2</v>
@@ -3452,19 +3425,19 @@
         <v>40007</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F44" s="4">
         <v>0.77</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J44" s="14">
         <v>200</v>
@@ -3475,7 +3448,7 @@
         <v>10008</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C45" s="6">
         <v>2</v>
@@ -3484,19 +3457,19 @@
         <v>40008</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F45" s="4">
         <v>0.77</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J45" s="14">
         <v>200</v>
@@ -3507,7 +3480,7 @@
         <v>10009</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C46" s="6">
         <v>2</v>
@@ -3516,19 +3489,19 @@
         <v>40009</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F46" s="4">
         <v>0.77</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J46" s="14">
         <v>200</v>
@@ -3539,7 +3512,7 @@
         <v>10010</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C47" s="6">
         <v>2</v>
@@ -3548,19 +3521,19 @@
         <v>40010</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F47" s="4">
         <v>0.77</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J47" s="14">
         <v>200</v>
@@ -3571,7 +3544,7 @@
         <v>10011</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C48" s="6">
         <v>2</v>
@@ -3580,19 +3553,19 @@
         <v>40011</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F48" s="4">
         <v>0.77</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J48" s="14">
         <v>200</v>
@@ -3603,7 +3576,7 @@
         <v>10012</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
@@ -3612,19 +3585,19 @@
         <v>40012</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F49" s="4">
         <v>0.77</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J49" s="14">
         <v>200</v>
@@ -3635,7 +3608,7 @@
         <v>10013</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C50" s="6">
         <v>2</v>
@@ -3644,19 +3617,19 @@
         <v>40013</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F50" s="4">
         <v>0.77</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J50" s="14">
         <v>200</v>
@@ -3667,7 +3640,7 @@
         <v>10014</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C51" s="6">
         <v>2</v>
@@ -3676,19 +3649,19 @@
         <v>40014</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F51" s="4">
         <v>0.77</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J51" s="14">
         <v>200</v>
@@ -3699,7 +3672,7 @@
         <v>10015</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C52" s="6">
         <v>2</v>
@@ -3708,19 +3681,19 @@
         <v>40015</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F52" s="4">
         <v>0.77</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J52" s="14">
         <v>200</v>
@@ -3731,7 +3704,7 @@
         <v>10031</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C53" s="6">
         <v>2</v>
@@ -3740,19 +3713,19 @@
         <v>40031</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F53" s="4">
         <v>0.77</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J53" s="14">
         <v>200</v>
@@ -3763,7 +3736,7 @@
         <v>10032</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C54" s="6">
         <v>2</v>
@@ -3772,19 +3745,19 @@
         <v>40032</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F54" s="4">
         <v>0.77</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J54" s="14">
         <v>200</v>
@@ -3795,7 +3768,7 @@
         <v>10033</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C55" s="6">
         <v>2</v>
@@ -3804,19 +3777,19 @@
         <v>40033</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F55" s="4">
         <v>0.77</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J55" s="14">
         <v>200</v>
@@ -3827,7 +3800,7 @@
         <v>10034</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C56" s="6">
         <v>2</v>
@@ -3836,19 +3809,19 @@
         <v>40034</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F56" s="4">
         <v>0.77</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J56" s="14">
         <v>200</v>
@@ -3859,7 +3832,7 @@
         <v>10035</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C57" s="6">
         <v>2</v>
@@ -3868,19 +3841,19 @@
         <v>40035</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F57" s="4">
         <v>0.77</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J57" s="14">
         <v>200</v>
@@ -3891,7 +3864,7 @@
         <v>10036</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C58" s="6">
         <v>2</v>
@@ -3900,19 +3873,19 @@
         <v>40036</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F58" s="4">
         <v>0.77</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J58" s="14">
         <v>200</v>
@@ -3923,7 +3896,7 @@
         <v>10037</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C59" s="6">
         <v>2</v>
@@ -3932,19 +3905,19 @@
         <v>40037</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F59" s="4">
         <v>0.77</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J59" s="14">
         <v>200</v>
@@ -3955,7 +3928,7 @@
         <v>10038</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C60" s="6">
         <v>2</v>
@@ -3964,19 +3937,19 @@
         <v>40038</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F60" s="4">
         <v>0.77</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J60" s="14">
         <v>200</v>
@@ -3987,7 +3960,7 @@
         <v>10039</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C61" s="6">
         <v>2</v>
@@ -3996,19 +3969,19 @@
         <v>40039</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F61" s="4">
         <v>0.77</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J61" s="14">
         <v>200</v>
@@ -4019,7 +3992,7 @@
         <v>10040</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C62" s="6">
         <v>2</v>
@@ -4028,19 +4001,19 @@
         <v>40040</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F62" s="4">
         <v>0.77</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J62" s="14">
         <v>200</v>
@@ -4051,7 +4024,7 @@
         <v>10056</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C63" s="6">
         <v>2</v>
@@ -4060,19 +4033,19 @@
         <v>40056</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F63" s="4">
         <v>0.77</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J63" s="14">
         <v>200</v>
@@ -4083,7 +4056,7 @@
         <v>10057</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C64" s="6">
         <v>2</v>
@@ -4092,19 +4065,19 @@
         <v>40057</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F64" s="4">
         <v>0.77</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J64" s="14">
         <v>200</v>
@@ -4115,7 +4088,7 @@
         <v>10058</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C65" s="6">
         <v>2</v>
@@ -4124,19 +4097,19 @@
         <v>40058</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F65" s="4">
         <v>0.77</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J65" s="14">
         <v>200</v>
@@ -4147,7 +4120,7 @@
         <v>10059</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C66" s="6">
         <v>2</v>
@@ -4156,19 +4129,19 @@
         <v>40059</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F66" s="4">
         <v>0.77</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J66" s="14">
         <v>200</v>
@@ -4179,7 +4152,7 @@
         <v>10060</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C67" s="6">
         <v>2</v>
@@ -4188,19 +4161,19 @@
         <v>40060</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F67" s="4">
         <v>0.77</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J67" s="14">
         <v>200</v>
@@ -4211,7 +4184,7 @@
         <v>10061</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C68" s="6">
         <v>2</v>
@@ -4220,19 +4193,19 @@
         <v>40061</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F68" s="4">
         <v>0.77</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J68" s="14">
         <v>200</v>
@@ -4243,7 +4216,7 @@
         <v>10062</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C69" s="6">
         <v>2</v>
@@ -4252,19 +4225,19 @@
         <v>40062</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F69" s="4">
         <v>0.77</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J69" s="14">
         <v>200</v>
@@ -4275,7 +4248,7 @@
         <v>10063</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C70" s="6">
         <v>2</v>
@@ -4284,19 +4257,19 @@
         <v>40063</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F70" s="4">
         <v>0.77</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J70" s="14">
         <v>200</v>
@@ -4307,7 +4280,7 @@
         <v>10064</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C71" s="6">
         <v>2</v>
@@ -4316,19 +4289,19 @@
         <v>40064</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F71" s="4">
         <v>0.77</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J71" s="14">
         <v>200</v>
@@ -4339,7 +4312,7 @@
         <v>10065</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C72" s="6">
         <v>2</v>
@@ -4348,19 +4321,19 @@
         <v>40065</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F72" s="4">
         <v>0.77</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J72" s="14">
         <v>200</v>
@@ -4371,7 +4344,7 @@
         <v>10081</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C73" s="6">
         <v>2</v>
@@ -4380,19 +4353,19 @@
         <v>40081</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F73" s="4">
         <v>0.77</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J73" s="14">
         <v>200</v>
@@ -4403,7 +4376,7 @@
         <v>10082</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C74" s="6">
         <v>2</v>
@@ -4412,19 +4385,19 @@
         <v>40082</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F74" s="4">
         <v>0.77</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J74" s="14">
         <v>200</v>
@@ -4435,7 +4408,7 @@
         <v>10083</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C75" s="6">
         <v>2</v>
@@ -4444,19 +4417,19 @@
         <v>40083</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F75" s="4">
         <v>0.77</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J75" s="14">
         <v>200</v>
@@ -4467,7 +4440,7 @@
         <v>10084</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C76" s="6">
         <v>2</v>
@@ -4476,19 +4449,19 @@
         <v>40084</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F76" s="4">
         <v>0.77</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J76" s="14">
         <v>200</v>
@@ -4499,7 +4472,7 @@
         <v>10085</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C77" s="6">
         <v>2</v>
@@ -4508,19 +4481,19 @@
         <v>40085</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F77" s="4">
         <v>0.77</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J77" s="14">
         <v>200</v>
@@ -4531,7 +4504,7 @@
         <v>10086</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C78" s="6">
         <v>2</v>
@@ -4540,19 +4513,19 @@
         <v>40086</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F78" s="4">
         <v>0.77</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J78" s="14">
         <v>200</v>
@@ -4563,7 +4536,7 @@
         <v>10087</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C79" s="6">
         <v>2</v>
@@ -4572,19 +4545,19 @@
         <v>40087</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F79" s="4">
         <v>0.77</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J79" s="14">
         <v>200</v>
@@ -4595,7 +4568,7 @@
         <v>10088</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C80" s="6">
         <v>2</v>
@@ -4604,19 +4577,19 @@
         <v>40088</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F80" s="4">
         <v>0.77</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J80" s="14">
         <v>200</v>
@@ -4627,7 +4600,7 @@
         <v>10089</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C81" s="6">
         <v>2</v>
@@ -4636,19 +4609,19 @@
         <v>40089</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F81" s="4">
         <v>0.77</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J81" s="14">
         <v>200</v>
@@ -4659,7 +4632,7 @@
         <v>10090</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
@@ -4668,19 +4641,19 @@
         <v>40090</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F82" s="4">
         <v>0.77</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J82" s="14">
         <v>200</v>
@@ -4691,7 +4664,7 @@
         <v>10106</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C83" s="6">
         <v>2</v>
@@ -4700,19 +4673,19 @@
         <v>40106</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F83" s="4">
         <v>0.77</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J83" s="14">
         <v>200</v>
@@ -4723,7 +4696,7 @@
         <v>10107</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C84" s="6">
         <v>2</v>
@@ -4732,19 +4705,19 @@
         <v>40107</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F84" s="4">
         <v>0.77</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J84" s="14">
         <v>200</v>
@@ -4755,7 +4728,7 @@
         <v>10108</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C85" s="6">
         <v>2</v>
@@ -4764,19 +4737,19 @@
         <v>40108</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F85" s="4">
         <v>0.77</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J85" s="14">
         <v>200</v>
@@ -4787,7 +4760,7 @@
         <v>10109</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C86" s="6">
         <v>2</v>
@@ -4796,19 +4769,19 @@
         <v>40109</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F86" s="4">
         <v>0.77</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J86" s="14">
         <v>200</v>
@@ -4819,7 +4792,7 @@
         <v>10110</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C87" s="6">
         <v>2</v>
@@ -4828,19 +4801,19 @@
         <v>40110</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F87" s="4">
         <v>0.77</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J87" s="14">
         <v>200</v>
@@ -4851,7 +4824,7 @@
         <v>10111</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C88" s="6">
         <v>2</v>
@@ -4860,19 +4833,19 @@
         <v>40111</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F88" s="4">
         <v>0.77</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J88" s="14">
         <v>200</v>
@@ -4883,7 +4856,7 @@
         <v>10112</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C89" s="6">
         <v>2</v>
@@ -4892,19 +4865,19 @@
         <v>40112</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F89" s="4">
         <v>0.77</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J89" s="14">
         <v>200</v>
@@ -4915,7 +4888,7 @@
         <v>10113</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C90" s="6">
         <v>2</v>
@@ -4924,19 +4897,19 @@
         <v>40113</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F90" s="4">
         <v>0.77</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J90" s="14">
         <v>200</v>
@@ -4947,7 +4920,7 @@
         <v>10114</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C91" s="6">
         <v>2</v>
@@ -4956,19 +4929,19 @@
         <v>40114</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F91" s="4">
         <v>0.77</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J91" s="14">
         <v>200</v>
@@ -4979,7 +4952,7 @@
         <v>10115</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C92" s="6">
         <v>2</v>
@@ -4988,19 +4961,19 @@
         <v>40115</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F92" s="4">
         <v>0.77</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J92" s="14">
         <v>200</v>
@@ -5011,7 +4984,7 @@
         <v>11004</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C93" s="6">
         <v>2</v>
@@ -5020,19 +4993,19 @@
         <v>41004</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F93" s="4">
         <v>0.77</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J93" s="14">
         <v>200</v>
@@ -5043,7 +5016,7 @@
         <v>11005</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C94" s="6">
         <v>2</v>
@@ -5052,19 +5025,19 @@
         <v>41005</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F94" s="4">
         <v>0.77</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J94" s="14">
         <v>200</v>
@@ -5075,7 +5048,7 @@
         <v>11009</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C95" s="6">
         <v>2</v>
@@ -5084,19 +5057,19 @@
         <v>41009</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F95" s="4">
         <v>0.77</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J95" s="14">
         <v>200</v>
@@ -5107,7 +5080,7 @@
         <v>11010</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C96" s="6">
         <v>2</v>
@@ -5116,19 +5089,19 @@
         <v>41010</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F96" s="4">
         <v>0.77</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J96" s="14">
         <v>200</v>
@@ -5139,7 +5112,7 @@
         <v>11014</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C97" s="6">
         <v>2</v>
@@ -5148,19 +5121,19 @@
         <v>41014</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F97" s="4">
         <v>0.77</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J97" s="14">
         <v>200</v>
@@ -5171,7 +5144,7 @@
         <v>11015</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C98" s="6">
         <v>2</v>
@@ -5180,19 +5153,19 @@
         <v>41015</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F98" s="4">
         <v>0.77</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J98" s="14">
         <v>200</v>
@@ -5203,7 +5176,7 @@
         <v>11019</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C99" s="6">
         <v>2</v>
@@ -5212,19 +5185,19 @@
         <v>41019</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F99" s="4">
         <v>0.77</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J99" s="14">
         <v>200</v>
@@ -5235,7 +5208,7 @@
         <v>11020</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C100" s="6">
         <v>2</v>
@@ -5244,19 +5217,19 @@
         <v>41020</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F100" s="4">
         <v>0.77</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J100" s="14">
         <v>200</v>
@@ -5267,7 +5240,7 @@
         <v>11024</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C101" s="6">
         <v>2</v>
@@ -5276,19 +5249,19 @@
         <v>41024</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F101" s="4">
         <v>0.77</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J101" s="14">
         <v>200</v>
@@ -5299,7 +5272,7 @@
         <v>11025</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C102" s="6">
         <v>2</v>
@@ -5308,19 +5281,19 @@
         <v>41025</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F102" s="4">
         <v>0.77</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J102" s="14">
         <v>200</v>
@@ -5331,7 +5304,7 @@
         <v>10016</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C103" s="6">
         <v>2</v>
@@ -5340,19 +5313,19 @@
         <v>40016</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F103" s="4">
         <v>0.77</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J103" s="14">
         <v>300</v>
@@ -5363,7 +5336,7 @@
         <v>10017</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C104" s="6">
         <v>2</v>
@@ -5372,19 +5345,19 @@
         <v>40017</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F104" s="4">
         <v>0.77</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J104" s="14">
         <v>300</v>
@@ -5395,7 +5368,7 @@
         <v>10018</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C105" s="6">
         <v>2</v>
@@ -5404,19 +5377,19 @@
         <v>40018</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F105" s="4">
         <v>0.77</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J105" s="14">
         <v>300</v>
@@ -5427,7 +5400,7 @@
         <v>10019</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C106" s="6">
         <v>2</v>
@@ -5436,19 +5409,19 @@
         <v>40019</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F106" s="4">
         <v>0.77</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J106" s="14">
         <v>300</v>
@@ -5459,7 +5432,7 @@
         <v>10020</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C107" s="6">
         <v>2</v>
@@ -5468,19 +5441,19 @@
         <v>40020</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F107" s="4">
         <v>0.77</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J107" s="14">
         <v>300</v>
@@ -5491,7 +5464,7 @@
         <v>10021</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C108" s="6">
         <v>2</v>
@@ -5500,19 +5473,19 @@
         <v>40021</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F108" s="4">
         <v>0.77</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J108" s="14">
         <v>300</v>
@@ -5523,7 +5496,7 @@
         <v>10022</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C109" s="6">
         <v>2</v>
@@ -5532,19 +5505,19 @@
         <v>40022</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F109" s="4">
         <v>0.77</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J109" s="14">
         <v>300</v>
@@ -5555,7 +5528,7 @@
         <v>10041</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C110" s="6">
         <v>2</v>
@@ -5564,19 +5537,19 @@
         <v>40041</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F110" s="4">
         <v>0.77</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J110" s="14">
         <v>300</v>
@@ -5587,7 +5560,7 @@
         <v>10042</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C111" s="6">
         <v>2</v>
@@ -5596,19 +5569,19 @@
         <v>40042</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F111" s="4">
         <v>0.77</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J111" s="14">
         <v>300</v>
@@ -5619,7 +5592,7 @@
         <v>10043</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C112" s="6">
         <v>2</v>
@@ -5628,19 +5601,19 @@
         <v>40043</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F112" s="4">
         <v>0.77</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J112" s="14">
         <v>300</v>
@@ -5651,7 +5624,7 @@
         <v>10044</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C113" s="6">
         <v>2</v>
@@ -5660,19 +5633,19 @@
         <v>40044</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F113" s="4">
         <v>0.77</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J113" s="14">
         <v>300</v>
@@ -5683,7 +5656,7 @@
         <v>10045</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C114" s="6">
         <v>2</v>
@@ -5692,19 +5665,19 @@
         <v>40045</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F114" s="4">
         <v>0.77</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J114" s="14">
         <v>300</v>
@@ -5715,7 +5688,7 @@
         <v>10046</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C115" s="6">
         <v>2</v>
@@ -5724,19 +5697,19 @@
         <v>40046</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F115" s="4">
         <v>0.77</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J115" s="14">
         <v>300</v>
@@ -5747,7 +5720,7 @@
         <v>10047</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C116" s="6">
         <v>2</v>
@@ -5756,19 +5729,19 @@
         <v>40047</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F116" s="4">
         <v>0.77</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J116" s="14">
         <v>300</v>
@@ -5779,7 +5752,7 @@
         <v>10066</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C117" s="6">
         <v>2</v>
@@ -5788,19 +5761,19 @@
         <v>40066</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F117" s="4">
         <v>0.77</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J117" s="14">
         <v>300</v>
@@ -5811,7 +5784,7 @@
         <v>10067</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C118" s="6">
         <v>2</v>
@@ -5820,19 +5793,19 @@
         <v>40067</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F118" s="4">
         <v>0.77</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J118" s="14">
         <v>300</v>
@@ -5843,7 +5816,7 @@
         <v>10068</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C119" s="6">
         <v>2</v>
@@ -5852,19 +5825,19 @@
         <v>40068</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F119" s="4">
         <v>0.77</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J119" s="14">
         <v>300</v>
@@ -5875,7 +5848,7 @@
         <v>10069</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C120" s="6">
         <v>2</v>
@@ -5884,19 +5857,19 @@
         <v>40069</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F120" s="4">
         <v>0.77</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J120" s="14">
         <v>300</v>
@@ -5907,7 +5880,7 @@
         <v>10070</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C121" s="6">
         <v>2</v>
@@ -5916,19 +5889,19 @@
         <v>40070</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F121" s="4">
         <v>0.77</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J121" s="14">
         <v>300</v>
@@ -5939,7 +5912,7 @@
         <v>10071</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C122" s="6">
         <v>2</v>
@@ -5948,19 +5921,19 @@
         <v>40071</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F122" s="4">
         <v>0.77</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J122" s="14">
         <v>300</v>
@@ -5971,7 +5944,7 @@
         <v>10072</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C123" s="6">
         <v>2</v>
@@ -5980,19 +5953,19 @@
         <v>40072</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F123" s="4">
         <v>0.77</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J123" s="14">
         <v>300</v>
@@ -6003,7 +5976,7 @@
         <v>10091</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C124" s="6">
         <v>2</v>
@@ -6012,19 +5985,19 @@
         <v>40091</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F124" s="4">
         <v>0.77</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J124" s="14">
         <v>300</v>
@@ -6035,7 +6008,7 @@
         <v>10092</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C125" s="6">
         <v>2</v>
@@ -6044,19 +6017,19 @@
         <v>40092</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F125" s="4">
         <v>0.77</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J125" s="14">
         <v>300</v>
@@ -6067,7 +6040,7 @@
         <v>10093</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C126" s="6">
         <v>2</v>
@@ -6076,19 +6049,19 @@
         <v>40093</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F126" s="4">
         <v>0.77</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J126" s="14">
         <v>300</v>
@@ -6099,7 +6072,7 @@
         <v>10094</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C127" s="6">
         <v>2</v>
@@ -6108,19 +6081,19 @@
         <v>40094</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F127" s="4">
         <v>0.77</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J127" s="14">
         <v>300</v>
@@ -6131,7 +6104,7 @@
         <v>10095</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C128" s="6">
         <v>2</v>
@@ -6140,19 +6113,19 @@
         <v>40095</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F128" s="4">
         <v>0.77</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J128" s="14">
         <v>300</v>
@@ -6163,7 +6136,7 @@
         <v>10096</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C129" s="6">
         <v>2</v>
@@ -6172,19 +6145,19 @@
         <v>40096</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F129" s="4">
         <v>0.77</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J129" s="14">
         <v>300</v>
@@ -6195,7 +6168,7 @@
         <v>10097</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C130" s="6">
         <v>2</v>
@@ -6204,19 +6177,19 @@
         <v>40097</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F130" s="4">
         <v>0.77</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J130" s="14">
         <v>300</v>
@@ -6227,7 +6200,7 @@
         <v>10116</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C131" s="6">
         <v>2</v>
@@ -6236,19 +6209,19 @@
         <v>40116</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F131" s="4">
         <v>0.77</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J131" s="14">
         <v>300</v>
@@ -6259,7 +6232,7 @@
         <v>10117</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C132" s="6">
         <v>2</v>
@@ -6268,19 +6241,19 @@
         <v>40117</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F132" s="4">
         <v>0.77</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J132" s="14">
         <v>300</v>
@@ -6291,7 +6264,7 @@
         <v>10118</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C133" s="6">
         <v>2</v>
@@ -6300,19 +6273,19 @@
         <v>40118</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F133" s="4">
         <v>0.77</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J133" s="14">
         <v>300</v>
@@ -6323,7 +6296,7 @@
         <v>10119</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C134" s="6">
         <v>2</v>
@@ -6332,19 +6305,19 @@
         <v>40119</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F134" s="4">
         <v>0.77</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I134" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J134" s="14">
         <v>300</v>
@@ -6355,7 +6328,7 @@
         <v>10120</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C135" s="6">
         <v>2</v>
@@ -6364,19 +6337,19 @@
         <v>40120</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F135" s="4">
         <v>0.77</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J135" s="14">
         <v>300</v>
@@ -6387,7 +6360,7 @@
         <v>10121</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C136" s="6">
         <v>2</v>
@@ -6396,19 +6369,19 @@
         <v>40121</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F136" s="4">
         <v>0.77</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J136" s="14">
         <v>300</v>
@@ -6419,7 +6392,7 @@
         <v>10122</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C137" s="6">
         <v>2</v>
@@ -6428,19 +6401,19 @@
         <v>40122</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F137" s="4">
         <v>0.77</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="J137" s="14">
         <v>300</v>
@@ -6451,7 +6424,7 @@
         <v>10023</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C138" s="6">
         <v>2</v>
@@ -6460,19 +6433,19 @@
         <v>40023</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F138" s="4">
         <v>0.77</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J138" s="14">
         <v>100</v>
@@ -6483,7 +6456,7 @@
         <v>10024</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C139" s="6">
         <v>2</v>
@@ -6492,19 +6465,19 @@
         <v>40024</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F139" s="4">
         <v>0.77</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J139" s="14">
         <v>100</v>
@@ -6515,7 +6488,7 @@
         <v>10025</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C140" s="6">
         <v>2</v>
@@ -6524,19 +6497,19 @@
         <v>40025</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F140" s="4">
         <v>0.77</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J140" s="14">
         <v>100</v>
@@ -6547,7 +6520,7 @@
         <v>10048</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C141" s="6">
         <v>2</v>
@@ -6556,19 +6529,19 @@
         <v>40048</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F141" s="4">
         <v>0.77</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J141" s="14">
         <v>100</v>
@@ -6579,7 +6552,7 @@
         <v>10049</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C142" s="6">
         <v>2</v>
@@ -6588,19 +6561,19 @@
         <v>40049</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F142" s="4">
         <v>0.77</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J142" s="14">
         <v>100</v>
@@ -6611,7 +6584,7 @@
         <v>10050</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C143" s="6">
         <v>2</v>
@@ -6620,19 +6593,19 @@
         <v>40050</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F143" s="4">
         <v>0.77</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J143" s="14">
         <v>100</v>
@@ -6643,7 +6616,7 @@
         <v>10073</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C144" s="6">
         <v>2</v>
@@ -6652,19 +6625,19 @@
         <v>40073</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F144" s="4">
         <v>0.77</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J144" s="14">
         <v>100</v>
@@ -6675,7 +6648,7 @@
         <v>10074</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C145" s="6">
         <v>2</v>
@@ -6684,19 +6657,19 @@
         <v>40074</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F145" s="4">
         <v>0.77</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J145" s="14">
         <v>100</v>
@@ -6707,7 +6680,7 @@
         <v>10075</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C146" s="6">
         <v>2</v>
@@ -6716,19 +6689,19 @@
         <v>40075</v>
       </c>
       <c r="E146" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F146" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="F146" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="J146" s="14">
         <v>100</v>
@@ -6739,7 +6712,7 @@
         <v>10098</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C147" s="6">
         <v>2</v>
@@ -6748,19 +6721,19 @@
         <v>40098</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F147" s="4">
         <v>0.77</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J147" s="14">
         <v>100</v>
@@ -6771,7 +6744,7 @@
         <v>10099</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C148" s="6">
         <v>2</v>
@@ -6780,19 +6753,19 @@
         <v>40099</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F148" s="4">
         <v>0.77</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J148" s="14">
         <v>100</v>
@@ -6803,7 +6776,7 @@
         <v>10100</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C149" s="6">
         <v>2</v>
@@ -6812,19 +6785,19 @@
         <v>40100</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F149" s="4">
         <v>0.77</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J149" s="14">
         <v>100</v>
@@ -6835,7 +6808,7 @@
         <v>10123</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C150" s="6">
         <v>2</v>
@@ -6844,19 +6817,19 @@
         <v>40123</v>
       </c>
       <c r="E150" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F150" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H150" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J150" s="14">
         <v>100</v>
@@ -6867,7 +6840,7 @@
         <v>10124</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C151" s="6">
         <v>2</v>
@@ -6876,19 +6849,19 @@
         <v>40124</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F151" s="4">
         <v>0.77</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J151" s="14">
         <v>100</v>
@@ -6899,7 +6872,7 @@
         <v>10125</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C152" s="6">
         <v>2</v>
@@ -6908,19 +6881,19 @@
         <v>40125</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F152" s="4">
         <v>0.77</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J152" s="14">
         <v>100</v>
